--- a/OUTPUTS/tablesp1p2.xlsx
+++ b/OUTPUTS/tablesp1p2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="144" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="276" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -209,7 +209,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -266,6 +266,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -306,23 +310,11 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="3" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="10" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="11" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="7" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="9" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -343,23 +335,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="M10" activeCellId="0" pane="topLeft" sqref="M10"/>
+      <selection activeCell="F49" activeCellId="0" pane="topLeft" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.76530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.46428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="2.53571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.76530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.46428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.51020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4591836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -456,9 +448,21 @@
       <c r="L3" s="13" t="n">
         <v>1.23359833851606E-008</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>18531.143497015</v>
+      </c>
+      <c r="Q3" s="14" t="n">
+        <v>1.23359833851606E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B4" s="1" t="n">
@@ -479,7 +483,7 @@
       <c r="G4" s="1" t="n">
         <v>18531.143497015</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="16" t="n">
         <v>7.09300332299222E-009</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -491,12 +495,24 @@
       <c r="K4" s="1" t="n">
         <v>18531.1434970151</v>
       </c>
-      <c r="L4" s="15" t="n">
+      <c r="L4" s="16" t="n">
         <v>8.94504298346251E-007</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>18531.1434970151</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>8.94504298346251E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B5" s="1" t="n">
@@ -517,7 +533,7 @@
       <c r="G5" s="1" t="n">
         <v>18531.143497015</v>
       </c>
-      <c r="H5" s="15" t="n">
+      <c r="H5" s="16" t="n">
         <v>6.97236843436971E-009</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -529,12 +545,24 @@
       <c r="K5" s="1" t="n">
         <v>18531.143497015</v>
       </c>
-      <c r="L5" s="15" t="n">
+      <c r="L5" s="16" t="n">
         <v>8.07565996315461E-008</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>18531.143497015</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <v>8.07565996315461E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B6" s="1" t="n">
@@ -555,7 +583,7 @@
       <c r="G6" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="H6" s="15" t="n">
+      <c r="H6" s="16" t="n">
         <v>2.23212341635399E-008</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -567,12 +595,24 @@
       <c r="K6" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="L6" s="15" t="n">
+      <c r="L6" s="16" t="n">
         <v>3.24509066072162E-007</v>
       </c>
+      <c r="N6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>27756.3535159291</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>3.24509066072162E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B7" s="1" t="n">
@@ -593,7 +633,7 @@
       <c r="G7" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="H7" s="15" t="n">
+      <c r="H7" s="16" t="n">
         <v>2.16468852418426E-008</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -605,12 +645,24 @@
       <c r="K7" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="L7" s="15" t="n">
+      <c r="L7" s="16" t="n">
         <v>3.94189348178277E-006</v>
       </c>
+      <c r="N7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>1056677</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>27756.3535159291</v>
+      </c>
+      <c r="Q7" s="14" t="n">
+        <v>3.94189348178277E-006</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B8" s="1" t="n">
@@ -631,7 +683,7 @@
       <c r="G8" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="H8" s="15" t="n">
+      <c r="H8" s="16" t="n">
         <v>0.000141555435612083</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -643,12 +695,24 @@
       <c r="K8" s="1" t="n">
         <v>27756.3535159291</v>
       </c>
-      <c r="L8" s="15" t="n">
+      <c r="L8" s="16" t="n">
         <v>4.81438238535831E-007</v>
       </c>
+      <c r="N8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>27756.3535159291</v>
+      </c>
+      <c r="Q8" s="14" t="n">
+        <v>4.81438238535831E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B9" s="1" t="n">
@@ -669,7 +733,7 @@
       <c r="G9" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="H9" s="15" t="n">
+      <c r="H9" s="16" t="n">
         <v>2.85176396962754E-007</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -681,12 +745,24 @@
       <c r="K9" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="L9" s="15" t="n">
+      <c r="L9" s="16" t="n">
         <v>2.74769379289773E-007</v>
       </c>
+      <c r="N9" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>36981.5635348431</v>
+      </c>
+      <c r="Q9" s="14" t="n">
+        <v>2.74769379289773E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B10" s="1" t="n">
@@ -707,7 +783,7 @@
       <c r="G10" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="16" t="n">
         <v>1.42610264122876E-008</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -719,12 +795,24 @@
       <c r="K10" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="L10" s="15" t="n">
+      <c r="L10" s="16" t="n">
         <v>7.23717895793946E-007</v>
       </c>
+      <c r="N10" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>36981.5635348431</v>
+      </c>
+      <c r="Q10" s="14" t="n">
+        <v>7.23717895793946E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B11" s="1" t="n">
@@ -745,7 +833,7 @@
       <c r="G11" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="16" t="n">
         <v>3.99921494826592E-008</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -757,12 +845,24 @@
       <c r="K11" s="1" t="n">
         <v>36981.5635348431</v>
       </c>
-      <c r="L11" s="15" t="n">
+      <c r="L11" s="16" t="n">
         <v>9.46625182949468E-007</v>
       </c>
+      <c r="N11" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>36981.5635348431</v>
+      </c>
+      <c r="Q11" s="14" t="n">
+        <v>9.46625182949468E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B12" s="1" t="n">
@@ -783,7 +883,7 @@
       <c r="G12" s="1" t="n">
         <v>83107.6136294132</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="16" t="n">
         <v>1.60211388966875E-007</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -795,12 +895,24 @@
       <c r="K12" s="1" t="n">
         <v>83107.6136294131</v>
       </c>
-      <c r="L12" s="15" t="n">
+      <c r="L12" s="16" t="n">
         <v>1.85019126376135E-005</v>
       </c>
+      <c r="N12" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1059884</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>83107.6136294131</v>
+      </c>
+      <c r="Q12" s="14" t="n">
+        <v>1.85019126376135E-005</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B13" s="1" t="n">
@@ -821,7 +933,7 @@
       <c r="G13" s="1" t="n">
         <v>83107.6136294131</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="16" t="n">
         <v>4.10848533637958E-005</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -833,12 +945,24 @@
       <c r="K13" s="1" t="n">
         <v>83107.6136294132</v>
       </c>
-      <c r="L13" s="15" t="n">
+      <c r="L13" s="16" t="n">
         <v>4.13078886561773E-007</v>
       </c>
+      <c r="N13" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>83107.6136294132</v>
+      </c>
+      <c r="Q13" s="14" t="n">
+        <v>4.13078886561773E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B14" s="1" t="n">
@@ -859,7 +983,7 @@
       <c r="G14" s="1" t="n">
         <v>83107.6136294131</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="H14" s="16" t="n">
         <v>3.8293520441423E-006</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -871,12 +995,24 @@
       <c r="K14" s="1" t="n">
         <v>83107.6136294132</v>
       </c>
-      <c r="L14" s="15" t="n">
+      <c r="L14" s="16" t="n">
         <v>4.03620831223426E-009</v>
       </c>
+      <c r="N14" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>83107.6136294132</v>
+      </c>
+      <c r="Q14" s="14" t="n">
+        <v>4.03620831223426E-009</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B15" s="1" t="n">
@@ -897,7 +1033,7 @@
       <c r="G15" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="H15" s="15" t="n">
+      <c r="H15" s="16" t="n">
         <v>3.66138713907215E-007</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -909,12 +1045,24 @@
       <c r="K15" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="L15" s="15" t="n">
+      <c r="L15" s="16" t="n">
         <v>8.97980859500295E-007</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>221485.763913123</v>
+      </c>
+      <c r="Q15" s="14" t="n">
+        <v>8.97980859500295E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B16" s="1" t="n">
@@ -935,7 +1083,7 @@
       <c r="G16" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="H16" s="15" t="n">
+      <c r="H16" s="16" t="n">
         <v>2.77352979901525E-005</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -947,12 +1095,24 @@
       <c r="K16" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="L16" s="15" t="n">
+      <c r="L16" s="16" t="n">
         <v>1.57163892339464E-007</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>221485.763913123</v>
+      </c>
+      <c r="Q16" s="14" t="n">
+        <v>1.57163892339464E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B17" s="1" t="n">
@@ -973,7 +1133,7 @@
       <c r="G17" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="H17" s="15" t="n">
+      <c r="H17" s="16" t="n">
         <v>2.77352979901525E-005</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -985,12 +1145,24 @@
       <c r="K17" s="1" t="n">
         <v>221485.763913123</v>
       </c>
-      <c r="L17" s="15" t="n">
+      <c r="L17" s="16" t="n">
         <v>5.13407672195185E-007</v>
       </c>
+      <c r="N17" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>221485.763913123</v>
+      </c>
+      <c r="Q17" s="14" t="n">
+        <v>5.13407672195185E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B18" s="1" t="n">
@@ -1011,7 +1183,7 @@
       <c r="G18" s="1" t="n">
         <v>452116.014385974</v>
       </c>
-      <c r="H18" s="15" t="n">
+      <c r="H18" s="16" t="n">
         <v>8.79207842269054E-008</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -1023,12 +1195,24 @@
       <c r="K18" s="1" t="n">
         <v>452116.014385973</v>
       </c>
-      <c r="L18" s="15" t="n">
+      <c r="L18" s="16" t="n">
         <v>7.84005543337785E-010</v>
       </c>
+      <c r="N18" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>452116.014385973</v>
+      </c>
+      <c r="Q18" s="14" t="n">
+        <v>7.84005543337785E-010</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B19" s="1" t="n">
@@ -1049,7 +1233,7 @@
       <c r="G19" s="1" t="n">
         <v>452116.014385974</v>
       </c>
-      <c r="H19" s="15" t="n">
+      <c r="H19" s="16" t="n">
         <v>5.30844984515976E-006</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1061,12 +1245,24 @@
       <c r="K19" s="1" t="n">
         <v>452116.014385974</v>
       </c>
-      <c r="L19" s="15" t="n">
+      <c r="L19" s="16" t="n">
         <v>4.12105850108416E-008</v>
       </c>
+      <c r="N19" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>452116.014385974</v>
+      </c>
+      <c r="Q19" s="14" t="n">
+        <v>4.12105850108416E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B20" s="1" t="n">
@@ -1087,7 +1283,7 @@
       <c r="G20" s="1" t="n">
         <v>452116.014385974</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H20" s="16" t="n">
         <v>4.47471688612847E-007</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1099,12 +1295,24 @@
       <c r="K20" s="1" t="n">
         <v>452116.014385973</v>
       </c>
-      <c r="L20" s="15" t="n">
+      <c r="L20" s="16" t="n">
         <v>3.05368811518947E-008</v>
       </c>
+      <c r="N20" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>452116.014385973</v>
+      </c>
+      <c r="Q20" s="14" t="n">
+        <v>3.05368811518947E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B21" s="1" t="n">
@@ -1125,7 +1333,7 @@
       <c r="G21" s="1" t="n">
         <v>913376.515331672</v>
       </c>
-      <c r="H21" s="15" t="n">
+      <c r="H21" s="16" t="n">
         <v>3.89126633836868E-005</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -1137,12 +1345,24 @@
       <c r="K21" s="1" t="n">
         <v>913376.515331676</v>
       </c>
-      <c r="L21" s="15" t="n">
+      <c r="L21" s="16" t="n">
         <v>6.37631005161667E-009</v>
       </c>
+      <c r="N21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>913376.515331676</v>
+      </c>
+      <c r="Q21" s="14" t="n">
+        <v>6.37631005161667E-009</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B22" s="1" t="n">
@@ -1163,7 +1383,7 @@
       <c r="G22" s="1" t="n">
         <v>913376.515331672</v>
       </c>
-      <c r="H22" s="15" t="n">
+      <c r="H22" s="16" t="n">
         <v>3.65706522282697E-008</v>
       </c>
       <c r="I22" s="1" t="n">
@@ -1175,12 +1395,24 @@
       <c r="K22" s="1" t="n">
         <v>913376.515331676</v>
       </c>
-      <c r="L22" s="15" t="n">
+      <c r="L22" s="16" t="n">
         <v>7.96101045401564E-007</v>
       </c>
+      <c r="N22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>913376.515331676</v>
+      </c>
+      <c r="Q22" s="14" t="n">
+        <v>7.96101045401564E-007</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B23" s="1" t="n">
@@ -1201,7 +1433,7 @@
       <c r="G23" s="1" t="n">
         <v>913376.515331672</v>
       </c>
-      <c r="H23" s="15" t="n">
+      <c r="H23" s="16" t="n">
         <v>9.85297867008407E-007</v>
       </c>
       <c r="I23" s="1" t="n">
@@ -1213,12 +1445,24 @@
       <c r="K23" s="1" t="n">
         <v>913376.515331677</v>
       </c>
-      <c r="L23" s="15" t="n">
+      <c r="L23" s="16" t="n">
         <v>6.34360482730128E-008</v>
       </c>
+      <c r="N23" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>913376.515331677</v>
+      </c>
+      <c r="Q23" s="14" t="n">
+        <v>6.34360482730128E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B24" s="1" t="n">
@@ -1239,7 +1483,7 @@
       <c r="G24" s="1" t="n">
         <v>4603460.52289722</v>
       </c>
-      <c r="H24" s="15" t="n">
+      <c r="H24" s="16" t="n">
         <v>4.44334160509569E-005</v>
       </c>
       <c r="I24" s="1" t="n">
@@ -1251,12 +1495,24 @@
       <c r="K24" s="1" t="n">
         <v>4603460.52289722</v>
       </c>
-      <c r="L24" s="15" t="n">
+      <c r="L24" s="16" t="n">
         <v>0.000365293779163563</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>1060960</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>4603460.52289722</v>
+      </c>
+      <c r="Q24" s="14" t="n">
+        <v>0.000365293779163563</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="14" t="n">
+      <c r="A25" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B25" s="1" t="n">
@@ -1277,7 +1533,7 @@
       <c r="G25" s="1" t="n">
         <v>4603460.52289722</v>
       </c>
-      <c r="H25" s="15" t="n">
+      <c r="H25" s="16" t="n">
         <v>0.000363451515130874</v>
       </c>
       <c r="I25" s="1" t="n">
@@ -1289,45 +1545,69 @@
       <c r="K25" s="1" t="n">
         <v>4603460.52289724</v>
       </c>
-      <c r="L25" s="15" t="n">
+      <c r="L25" s="16" t="n">
         <v>4.08790659021574E-008</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>4603460.52289724</v>
+      </c>
+      <c r="Q25" s="14" t="n">
+        <v>4.08790659021574E-008</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="16" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="B26" s="17" t="n">
+      <c r="A26" s="17" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B26" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="C26" s="17" t="n">
+      <c r="C26" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="D26" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="17" t="n">
+      <c r="D26" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18" t="n">
         <v>19</v>
       </c>
-      <c r="F26" s="17" t="n">
+      <c r="F26" s="18" t="n">
         <v>70</v>
       </c>
-      <c r="G26" s="17" t="n">
+      <c r="G26" s="18" t="n">
         <v>4603460.52289721</v>
       </c>
-      <c r="H26" s="18" t="n">
+      <c r="H26" s="19" t="n">
         <v>1.23513261911744E-005</v>
       </c>
-      <c r="I26" s="17" t="n">
+      <c r="I26" s="18" t="n">
         <v>700</v>
       </c>
-      <c r="J26" s="17" t="n">
+      <c r="J26" s="18" t="n">
         <v>736022</v>
       </c>
-      <c r="K26" s="17" t="n">
+      <c r="K26" s="18" t="n">
         <v>4603460.52289722</v>
       </c>
-      <c r="L26" s="18" t="n">
+      <c r="L26" s="19" t="n">
+        <v>0.000301544460666727</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>1058822</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>4603460.52289722</v>
+      </c>
+      <c r="Q26" s="14" t="n">
         <v>0.000301544460666727</v>
       </c>
     </row>
@@ -1424,7 +1704,7 @@
       <c r="L31" s="13"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="14" t="n">
+      <c r="A32" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B32" s="1" t="n">
@@ -1445,7 +1725,7 @@
       <c r="G32" s="1" t="n">
         <v>371.795908851334</v>
       </c>
-      <c r="H32" s="19" t="n">
+      <c r="H32" s="20" t="n">
         <v>167.677406549937</v>
       </c>
       <c r="I32" s="1" t="n">
@@ -1457,12 +1737,12 @@
       <c r="K32" s="1" t="n">
         <v>274.684150408801</v>
       </c>
-      <c r="L32" s="15" t="n">
+      <c r="L32" s="16" t="n">
         <v>6.54072204303483E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="14" t="n">
+      <c r="A33" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B33" s="1" t="n">
@@ -1483,7 +1763,7 @@
       <c r="G33" s="1" t="n">
         <v>371.795908851334</v>
       </c>
-      <c r="H33" s="19" t="n">
+      <c r="H33" s="20" t="n">
         <v>167.677406549937</v>
       </c>
       <c r="I33" s="1" t="n">
@@ -1495,12 +1775,12 @@
       <c r="K33" s="1" t="n">
         <v>274.68415047104</v>
       </c>
-      <c r="L33" s="15" t="n">
+      <c r="L33" s="16" t="n">
         <v>6.54072199139603E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="14" t="n">
+      <c r="A34" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B34" s="1" t="n">
@@ -1521,7 +1801,7 @@
       <c r="G34" s="1" t="n">
         <v>468.375269685781</v>
       </c>
-      <c r="H34" s="19" t="n">
+      <c r="H34" s="20" t="n">
         <v>193.672189314082</v>
       </c>
       <c r="I34" s="1" t="n">
@@ -1533,12 +1813,12 @@
       <c r="K34" s="1" t="n">
         <v>371.513422446343</v>
       </c>
-      <c r="L34" s="15" t="n">
+      <c r="L34" s="16" t="n">
         <v>1.09964567377889E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="14" t="n">
+      <c r="A35" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B35" s="1" t="n">
@@ -1559,7 +1839,7 @@
       <c r="G35" s="1" t="n">
         <v>468.375269685781</v>
       </c>
-      <c r="H35" s="19" t="n">
+      <c r="H35" s="20" t="n">
         <v>193.672189314082</v>
       </c>
       <c r="I35" s="1" t="n">
@@ -1571,12 +1851,12 @@
       <c r="K35" s="1" t="n">
         <v>371.515595228604</v>
       </c>
-      <c r="L35" s="15" t="n">
+      <c r="L35" s="16" t="n">
         <v>2.41825864714523E-009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="14" t="n">
+      <c r="A36" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B36" s="1" t="n">
@@ -1597,7 +1877,7 @@
       <c r="G36" s="1" t="n">
         <v>468.375269685781</v>
       </c>
-      <c r="H36" s="19" t="n">
+      <c r="H36" s="20" t="n">
         <v>193.672189314082</v>
       </c>
       <c r="I36" s="1" t="n">
@@ -1609,12 +1889,12 @@
       <c r="K36" s="1" t="n">
         <v>371.515595228604</v>
       </c>
-      <c r="L36" s="15" t="n">
+      <c r="L36" s="16" t="n">
         <v>2.41825864714523E-009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="14" t="n">
+      <c r="A37" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B37" s="1" t="n">
@@ -1635,7 +1915,7 @@
       <c r="G37" s="1" t="n">
         <v>565.280770861537</v>
       </c>
-      <c r="H37" s="19" t="n">
+      <c r="H37" s="20" t="n">
         <v>216.525586679674</v>
       </c>
       <c r="I37" s="1" t="n">
@@ -1647,10 +1927,10 @@
       <c r="K37" s="1" t="n">
         <v>521.996250558824</v>
       </c>
-      <c r="L37" s="15"/>
+      <c r="L37" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="14" t="n">
+      <c r="A38" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B38" s="1" t="n">
@@ -1671,7 +1951,7 @@
       <c r="G38" s="1" t="n">
         <v>565.280770861537</v>
       </c>
-      <c r="H38" s="19" t="n">
+      <c r="H38" s="20" t="n">
         <v>216.525586679674</v>
       </c>
       <c r="I38" s="1" t="n">
@@ -1683,10 +1963,10 @@
       <c r="K38" s="1" t="n">
         <v>521.642480684468</v>
       </c>
-      <c r="L38" s="15"/>
+      <c r="L38" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="14" t="n">
+      <c r="A39" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B39" s="1" t="n">
@@ -1707,7 +1987,7 @@
       <c r="G39" s="1" t="n">
         <v>565.280770861537</v>
       </c>
-      <c r="H39" s="19" t="n">
+      <c r="H39" s="20" t="n">
         <v>216.525586679674</v>
       </c>
       <c r="I39" s="1" t="n">
@@ -1719,10 +1999,10 @@
       <c r="K39" s="1" t="n">
         <v>521.642480684468</v>
       </c>
-      <c r="L39" s="15"/>
+      <c r="L39" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="14" t="n">
+      <c r="A40" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B40" s="1" t="n">
@@ -1743,7 +2023,7 @@
       <c r="G40" s="1" t="n">
         <v>1049.37377195619</v>
       </c>
-      <c r="H40" s="19" t="n">
+      <c r="H40" s="20" t="n">
         <v>306.226522159205</v>
       </c>
       <c r="I40" s="1" t="n">
@@ -1755,12 +2035,12 @@
       <c r="K40" s="1" t="n">
         <v>952.539539605319</v>
       </c>
-      <c r="L40" s="15" t="n">
+      <c r="L40" s="16" t="n">
         <v>6.22401330474531E-009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B41" s="1" t="n">
@@ -1781,7 +2061,7 @@
       <c r="G41" s="1" t="n">
         <v>1049.37377195619</v>
       </c>
-      <c r="H41" s="19" t="n">
+      <c r="H41" s="20" t="n">
         <v>306.226522159205</v>
       </c>
       <c r="I41" s="1" t="n">
@@ -1793,12 +2073,12 @@
       <c r="K41" s="1" t="n">
         <v>952.53977905711</v>
       </c>
-      <c r="L41" s="15" t="n">
+      <c r="L41" s="16" t="n">
         <v>1.98251735028521E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B42" s="1" t="n">
@@ -1819,7 +2099,7 @@
       <c r="G42" s="1" t="n">
         <v>1049.37377195619</v>
       </c>
-      <c r="H42" s="19" t="n">
+      <c r="H42" s="20" t="n">
         <v>306.226522159205</v>
       </c>
       <c r="I42" s="1" t="n">
@@ -1831,12 +2111,12 @@
       <c r="K42" s="1" t="n">
         <v>952.539501058486</v>
       </c>
-      <c r="L42" s="15" t="n">
+      <c r="L42" s="16" t="n">
         <v>3.06289431150822E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="14" t="n">
+      <c r="A43" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B43" s="1" t="n">
@@ -1857,7 +2137,7 @@
       <c r="G43" s="1" t="n">
         <v>2502.10023409408</v>
       </c>
-      <c r="H43" s="19" t="n">
+      <c r="H43" s="20" t="n">
         <v>484.182414855294</v>
       </c>
       <c r="I43" s="1" t="n">
@@ -1869,12 +2149,12 @@
       <c r="K43" s="1" t="n">
         <v>2405.10540921362</v>
       </c>
-      <c r="L43" s="15" t="n">
+      <c r="L43" s="16" t="n">
         <v>1.75249059215764E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="14" t="n">
+      <c r="A44" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B44" s="1" t="n">
@@ -1895,7 +2175,7 @@
       <c r="G44" s="1" t="n">
         <v>2502.10023409408</v>
       </c>
-      <c r="H44" s="19" t="n">
+      <c r="H44" s="20" t="n">
         <v>484.182414855294</v>
       </c>
       <c r="I44" s="1" t="n">
@@ -1907,12 +2187,12 @@
       <c r="K44" s="1" t="n">
         <v>2405.1053362021</v>
       </c>
-      <c r="L44" s="15" t="n">
+      <c r="L44" s="16" t="n">
         <v>4.36750609237239E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="14" t="n">
+      <c r="A45" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B45" s="1" t="n">
@@ -1933,7 +2213,7 @@
       <c r="G45" s="1" t="n">
         <v>2502.10023409408</v>
       </c>
-      <c r="H45" s="19" t="n">
+      <c r="H45" s="20" t="n">
         <v>484.182414855294</v>
       </c>
       <c r="I45" s="1" t="n">
@@ -1945,12 +2225,12 @@
       <c r="K45" s="1" t="n">
         <v>2405.10533676483</v>
       </c>
-      <c r="L45" s="15" t="n">
+      <c r="L45" s="16" t="n">
         <v>1.80530204100737E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="14" t="n">
+      <c r="A46" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B46" s="1" t="n">
@@ -1971,7 +2251,7 @@
       <c r="G46" s="1" t="n">
         <v>4923.82930598438</v>
       </c>
-      <c r="H46" s="19" t="n">
+      <c r="H46" s="20" t="n">
         <v>684.720458032644</v>
       </c>
       <c r="I46" s="1" t="n">
@@ -1983,12 +2263,12 @@
       <c r="K46" s="1" t="n">
         <v>4826.04841522641</v>
       </c>
-      <c r="L46" s="15" t="n">
+      <c r="L46" s="16" t="n">
         <v>5.56491466241482E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="14" t="n">
+      <c r="A47" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B47" s="1" t="n">
@@ -2009,7 +2289,7 @@
       <c r="G47" s="1" t="n">
         <v>4923.82930598438</v>
       </c>
-      <c r="H47" s="19" t="n">
+      <c r="H47" s="20" t="n">
         <v>684.720458032644</v>
       </c>
       <c r="I47" s="1" t="n">
@@ -2021,12 +2301,12 @@
       <c r="K47" s="1" t="n">
         <v>4826.04841593414</v>
       </c>
-      <c r="L47" s="15" t="n">
+      <c r="L47" s="16" t="n">
         <v>5.56490009073762E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="14" t="n">
+      <c r="A48" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B48" s="1" t="n">
@@ -2047,7 +2327,7 @@
       <c r="G48" s="1" t="n">
         <v>4923.82930598438</v>
       </c>
-      <c r="H48" s="19" t="n">
+      <c r="H48" s="20" t="n">
         <v>684.720458032644</v>
       </c>
       <c r="I48" s="1" t="n">
@@ -2059,12 +2339,12 @@
       <c r="K48" s="1" t="n">
         <v>4826.04841593414</v>
       </c>
-      <c r="L48" s="15" t="n">
+      <c r="L48" s="16" t="n">
         <v>5.56489997416421E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="14" t="n">
+      <c r="A49" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B49" s="1" t="n">
@@ -2085,7 +2365,7 @@
       <c r="G49" s="1" t="n">
         <v>9767.30976576376</v>
       </c>
-      <c r="H49" s="19" t="n">
+      <c r="H49" s="20" t="n">
         <v>968.329037049519</v>
       </c>
       <c r="I49" s="1" t="n">
@@ -2097,12 +2377,12 @@
       <c r="K49" s="1" t="n">
         <v>9667.93452531127</v>
       </c>
-      <c r="L49" s="15" t="n">
+      <c r="L49" s="16" t="n">
         <v>7.7200411878626E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="14" t="n">
+      <c r="A50" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B50" s="1" t="n">
@@ -2123,7 +2403,7 @@
       <c r="G50" s="1" t="n">
         <v>9767.30976576376</v>
       </c>
-      <c r="H50" s="19" t="n">
+      <c r="H50" s="20" t="n">
         <v>968.329037049519</v>
       </c>
       <c r="I50" s="1" t="n">
@@ -2135,12 +2415,12 @@
       <c r="K50" s="1" t="n">
         <v>9667.93452629032</v>
       </c>
-      <c r="L50" s="15" t="n">
+      <c r="L50" s="16" t="n">
         <v>7.72003881284797E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="14" t="n">
+      <c r="A51" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B51" s="1" t="n">
@@ -2161,7 +2441,7 @@
       <c r="G51" s="1" t="n">
         <v>9767.30976576376</v>
       </c>
-      <c r="H51" s="19" t="n">
+      <c r="H51" s="20" t="n">
         <v>968.329037049519</v>
       </c>
       <c r="I51" s="1" t="n">
@@ -2173,12 +2453,12 @@
       <c r="K51" s="1" t="n">
         <v>9667.9345180734</v>
       </c>
-      <c r="L51" s="15" t="n">
+      <c r="L51" s="16" t="n">
         <v>5.17513718984182E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="14" t="n">
+      <c r="A52" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B52" s="1" t="n">
@@ -2199,7 +2479,7 @@
       <c r="G52" s="1" t="n">
         <v>48515.2067028619</v>
       </c>
-      <c r="H52" s="19" t="n">
+      <c r="H52" s="20" t="n">
         <v>2165.22824406418</v>
       </c>
       <c r="I52" s="1" t="n">
@@ -2211,12 +2491,12 @@
       <c r="K52" s="1" t="n">
         <v>48403.1390323475</v>
       </c>
-      <c r="L52" s="15" t="n">
+      <c r="L52" s="16" t="n">
         <v>5.72382730653659E-009</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="14" t="n">
+      <c r="A53" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B53" s="1" t="n">
@@ -2237,7 +2517,7 @@
       <c r="G53" s="1" t="n">
         <v>48515.2067028619</v>
       </c>
-      <c r="H53" s="19" t="n">
+      <c r="H53" s="20" t="n">
         <v>2165.22824406418</v>
       </c>
       <c r="I53" s="1" t="n">
@@ -2249,45 +2529,45 @@
       <c r="K53" s="1" t="n">
         <v>48403.0234480314</v>
       </c>
-      <c r="L53" s="15" t="n">
+      <c r="L53" s="16" t="n">
         <v>1.70014690101841E-007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="16" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="B54" s="17" t="n">
+      <c r="A54" s="17" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B54" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="C54" s="17" t="n">
+      <c r="C54" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="D54" s="17" t="n">
+      <c r="D54" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E54" s="17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F54" s="17" t="n">
+      <c r="E54" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="G54" s="17" t="n">
+      <c r="G54" s="18" t="n">
         <v>48515.2067028619</v>
       </c>
-      <c r="H54" s="20" t="n">
+      <c r="H54" s="21" t="n">
         <v>2165.22824406418</v>
       </c>
-      <c r="I54" s="17" t="n">
+      <c r="I54" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="J54" s="17" t="n">
+      <c r="J54" s="18" t="n">
         <v>177</v>
       </c>
-      <c r="K54" s="17" t="n">
+      <c r="K54" s="18" t="n">
         <v>48403.0234480263</v>
       </c>
-      <c r="L54" s="18" t="n">
+      <c r="L54" s="19" t="n">
         <v>1.7001567468184E-007</v>
       </c>
     </row>
@@ -2322,7 +2602,7 @@
       <c r="D57" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="22" t="s">
         <v>6</v>
       </c>
       <c r="F57" s="9" t="s">
@@ -2331,10 +2611,10 @@
       <c r="G57" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="22" t="s">
+      <c r="H57" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="22" t="s">
         <v>6</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -2360,7 +2640,7 @@
       <c r="D58" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E58" s="23" t="n">
+      <c r="E58" s="24" t="n">
         <v>19</v>
       </c>
       <c r="F58" s="3" t="n">
@@ -2369,10 +2649,10 @@
       <c r="G58" s="3" t="n">
         <v>4603460.52289722</v>
       </c>
-      <c r="H58" s="24" t="n">
+      <c r="H58" s="4" t="n">
         <v>0.000363451515130874</v>
       </c>
-      <c r="I58" s="23" t="n">
+      <c r="I58" s="24" t="n">
         <v>17</v>
       </c>
       <c r="J58" s="3" t="n">
@@ -2386,7 +2666,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="14" t="n">
+      <c r="A59" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B59" s="1" t="n">
@@ -2395,7 +2675,7 @@
       <c r="C59" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D59" s="19" t="n">
+      <c r="D59" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="E59" s="25" t="n">
@@ -2407,7 +2687,7 @@
       <c r="G59" s="1" t="n">
         <v>477620.757830095</v>
       </c>
-      <c r="H59" s="26" t="n">
+      <c r="H59" s="20" t="n">
         <v>2146.92232224785</v>
       </c>
       <c r="I59" s="25" t="n">
@@ -2419,12 +2699,12 @@
       <c r="K59" s="1" t="n">
         <v>474789.433880768</v>
       </c>
-      <c r="L59" s="15" t="n">
+      <c r="L59" s="16" t="n">
         <v>5.86182286745601E-007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="14" t="n">
+      <c r="A60" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B60" s="1" t="n">
@@ -2433,7 +2713,7 @@
       <c r="C60" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D60" s="19" t="n">
+      <c r="D60" s="20" t="n">
         <v>1.1</v>
       </c>
       <c r="E60" s="25" t="n">
@@ -2445,7 +2725,7 @@
       <c r="G60" s="1" t="n">
         <v>76939.1084854932</v>
       </c>
-      <c r="H60" s="26" t="n">
+      <c r="H60" s="20" t="n">
         <v>2161.90051734782</v>
       </c>
       <c r="I60" s="25" t="n">
@@ -2457,12 +2737,12 @@
       <c r="K60" s="1" t="n">
         <v>76420.5622580092</v>
       </c>
-      <c r="L60" s="15" t="n">
+      <c r="L60" s="16" t="n">
         <v>4.3864665360611E-007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="14" t="n">
+      <c r="A61" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B61" s="1" t="n">
@@ -2471,7 +2751,7 @@
       <c r="C61" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D61" s="19" t="n">
+      <c r="D61" s="20" t="n">
         <v>1.01</v>
       </c>
       <c r="E61" s="25" t="n">
@@ -2483,7 +2763,7 @@
       <c r="G61" s="1" t="n">
         <v>50769.1255888723</v>
       </c>
-      <c r="H61" s="26" t="n">
+      <c r="H61" s="20" t="n">
         <v>2165.32450058115</v>
       </c>
       <c r="I61" s="25" t="n">
@@ -2495,12 +2775,12 @@
       <c r="K61" s="1" t="n">
         <v>50664.1134780594</v>
       </c>
-      <c r="L61" s="15" t="n">
+      <c r="L61" s="16" t="n">
         <v>4.31728021613888E-008</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="A62" s="14" t="n">
+      <c r="A62" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B62" s="1" t="n">
@@ -2509,7 +2789,7 @@
       <c r="C62" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D62" s="19" t="n">
+      <c r="D62" s="20" t="n">
         <v>1.001</v>
       </c>
       <c r="E62" s="25" t="n">
@@ -2521,7 +2801,7 @@
       <c r="G62" s="1" t="n">
         <v>48735.9321295938</v>
       </c>
-      <c r="H62" s="26" t="n">
+      <c r="H62" s="20" t="n">
         <v>2165.23774476201</v>
       </c>
       <c r="I62" s="25" t="n">
@@ -2533,12 +2813,12 @@
       <c r="K62" s="1" t="n">
         <v>48624.5274298294</v>
       </c>
-      <c r="L62" s="15" t="n">
+      <c r="L62" s="16" t="n">
         <v>4.28610215310162E-007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="14" t="n">
+      <c r="A63" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B63" s="1" t="n">
@@ -2547,7 +2827,7 @@
       <c r="C63" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D63" s="19" t="n">
+      <c r="D63" s="20" t="n">
         <v>1.0001</v>
       </c>
       <c r="E63" s="25" t="n">
@@ -2559,7 +2839,7 @@
       <c r="G63" s="1" t="n">
         <v>48537.233352038</v>
       </c>
-      <c r="H63" s="26" t="n">
+      <c r="H63" s="20" t="n">
         <v>2165.22919285238</v>
       </c>
       <c r="I63" s="25" t="n">
@@ -2571,10 +2851,10 @@
       <c r="K63" s="1" t="n">
         <v>48431.1125163605</v>
       </c>
-      <c r="L63" s="15"/>
+      <c r="L63" s="16"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="A64" s="14" t="n">
+      <c r="A64" s="15" t="n">
         <v>1E-006</v>
       </c>
       <c r="B64" s="1" t="n">
@@ -2583,7 +2863,7 @@
       <c r="C64" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D64" s="19" t="n">
+      <c r="D64" s="20" t="n">
         <v>1.00001</v>
       </c>
       <c r="E64" s="25" t="n">
@@ -2595,7 +2875,7 @@
       <c r="G64" s="1" t="n">
         <v>48517.4089095878</v>
       </c>
-      <c r="H64" s="26" t="n">
+      <c r="H64" s="20" t="n">
         <v>2165.22833893015</v>
       </c>
       <c r="I64" s="25" t="n">
@@ -2607,45 +2887,45 @@
       <c r="K64" s="1" t="n">
         <v>48405.2332819283</v>
       </c>
-      <c r="L64" s="15" t="n">
+      <c r="L64" s="16" t="n">
         <v>1.35863761073768E-007</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="16" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="B65" s="17" t="n">
+      <c r="A65" s="17" t="n">
+        <v>1E-006</v>
+      </c>
+      <c r="B65" s="18" t="n">
         <v>1000</v>
       </c>
-      <c r="C65" s="17" t="n">
-        <v>10</v>
-      </c>
-      <c r="D65" s="20" t="n">
+      <c r="C65" s="18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D65" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" s="17" t="n">
+      <c r="E65" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18" t="n">
         <v>55</v>
       </c>
-      <c r="G65" s="17" t="n">
+      <c r="G65" s="18" t="n">
         <v>48515.2067028619</v>
       </c>
-      <c r="H65" s="28" t="n">
+      <c r="H65" s="21" t="n">
         <v>2165.22824406418</v>
       </c>
-      <c r="I65" s="27" t="n">
+      <c r="I65" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="J65" s="17" t="n">
+      <c r="J65" s="18" t="n">
         <v>177</v>
       </c>
-      <c r="K65" s="17" t="n">
+      <c r="K65" s="18" t="n">
         <v>48403.0234480314</v>
       </c>
-      <c r="L65" s="18" t="n">
+      <c r="L65" s="19" t="n">
         <v>1.70014690101841E-007</v>
       </c>
     </row>
